--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20211.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,30 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>KIMBERLY ALONDRA</t>
   </si>
 </sst>
 </file>
@@ -477,16 +501,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>77.42</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -500,16 +527,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>52.38</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -523,16 +553,16 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>8.6</v>
@@ -549,16 +579,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>61.9</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +650,7 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -640,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -663,7 +696,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -686,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -748,16 +781,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>77.42</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -771,16 +807,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>52.38</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -794,16 +833,16 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>8.6</v>
@@ -820,16 +859,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>61.9</v>
+      </c>
+      <c r="H5">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +881,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,6 +914,75 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20211.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -82,22 +82,16 @@
     <t>CORONA</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
     <t>VICTOR HUGO</t>
   </si>
   <si>
     <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>KIMBERLY ALONDRA</t>
   </si>
 </sst>
 </file>
@@ -553,19 +547,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -579,16 +573,16 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>66.67</v>
       </c>
       <c r="H5">
         <v>7.8</v>
@@ -696,7 +690,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -719,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -833,19 +827,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -859,16 +853,16 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>66.67</v>
       </c>
       <c r="H5">
         <v>7.8</v>
@@ -881,7 +875,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,10 +916,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -945,10 +939,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -957,29 +951,6 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20211.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20211.xlsx
@@ -521,16 +521,16 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -547,19 +547,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>85.70999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -801,16 +801,16 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -827,19 +827,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>85.70999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
